--- a/xlsx/德克薩斯州_intext.xlsx
+++ b/xlsx/德克薩斯州_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美國</t>
   </si>
   <si>
-    <t>政策_政策_美國_德克薩斯州</t>
+    <t>体育运动_体育运动_袋棍球_德克薩斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -2515,7 +2515,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
